--- a/web/tables/generators/R22_profi_dvojice.xlsx
+++ b/web/tables/generators/R22_profi_dvojice.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1956" yWindow="1956" windowWidth="21600" windowHeight="11388"/>
+    <workbookView xWindow="1956" yWindow="1956" windowWidth="21600" windowHeight="11388" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="12ka" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>Body</t>
   </si>
@@ -112,9 +112,6 @@
     <t>Žum &amp; Zuzka Č.</t>
   </si>
   <si>
-    <t>Ziky &amp; Kali</t>
-  </si>
-  <si>
     <t>Zelí &amp; Naty V.</t>
   </si>
   <si>
@@ -170,6 +167,45 @@
   </si>
   <si>
     <t>275:286</t>
+  </si>
+  <si>
+    <t>Ziky &amp; Kali &amp; Zuzka Šátek</t>
+  </si>
+  <si>
+    <t>10.</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>11.</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>12.</t>
+  </si>
+  <si>
+    <t>7.</t>
   </si>
 </sst>
 </file>
@@ -525,7 +561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -555,91 +591,91 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="str">
         <f>'12ka_config'!A2</f>
-        <v>Mára Z. &amp; Juan</v>
+        <v>Michal N. &amp; Hanka V.</v>
       </c>
       <c r="B2" s="1" t="str">
         <f>'12ka_config'!B2</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>'12ka_config'!C2</f>
-        <v>276:286</v>
+        <v>292:252</v>
       </c>
       <c r="D2" s="2" t="str">
         <f>CONCATENATE(b_1,'12ka_config'!D2,a_1)</f>
-        <v>&lt;b&gt;&lt;/b&gt;</v>
+        <v>&lt;b&gt;1.&lt;/b&gt;</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f>'12ka_config'!A3</f>
-        <v>Pajmič &amp; Vojta</v>
+        <v>Zelí &amp; Naty V.</v>
       </c>
       <c r="B3" s="1" t="str">
         <f>'12ka_config'!B3</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="str">
         <f>'12ka_config'!C3</f>
-        <v>282:270</v>
+        <v>293:269</v>
       </c>
       <c r="D3" s="2" t="str">
         <f>CONCATENATE(b_1,'12ka_config'!D3,a_1)</f>
-        <v>&lt;b&gt;&lt;/b&gt;</v>
+        <v>&lt;b&gt;2.&lt;/b&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="str">
         <f>'12ka_config'!A4</f>
-        <v>Valda &amp; Radim P.</v>
+        <v>Pajmič &amp; Vojta</v>
       </c>
       <c r="B4" s="1" t="str">
         <f>'12ka_config'!B4</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>'12ka_config'!C4</f>
-        <v>277:272</v>
+        <v>282:270</v>
       </c>
       <c r="D4" s="2" t="str">
         <f>CONCATENATE(b_1,'12ka_config'!D4,a_1)</f>
-        <v>&lt;b&gt;&lt;/b&gt;</v>
+        <v>&lt;b&gt;3.&lt;/b&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="str">
         <f>'12ka_config'!A5</f>
-        <v>Kudla &amp; Tomy</v>
+        <v>Mazy &amp; Martina D.</v>
       </c>
       <c r="B5" s="1" t="str">
         <f>'12ka_config'!B5</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>'12ka_config'!C5</f>
-        <v>279:286</v>
+        <v>286:270</v>
       </c>
       <c r="D5" s="2" t="str">
         <f>CONCATENATE(b_1,'12ka_config'!D5,a_1)</f>
-        <v>&lt;b&gt;&lt;/b&gt;</v>
+        <v>&lt;b&gt;4.&lt;/b&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="str">
         <f>'12ka_config'!A6</f>
-        <v>Žum &amp; Zuzka Č.</v>
+        <v>Valda &amp; Radim P.</v>
       </c>
       <c r="B6" s="1" t="str">
         <f>'12ka_config'!B6</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>'12ka_config'!C6</f>
-        <v>278:269</v>
+        <v>277:272</v>
       </c>
       <c r="D6" s="2" t="str">
         <f>CONCATENATE(b_1,'12ka_config'!D6,a_1)</f>
-        <v>&lt;b&gt;&lt;/b&gt;</v>
+        <v>&lt;b&gt;5.&lt;/b&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -657,115 +693,115 @@
       </c>
       <c r="D7" s="2" t="str">
         <f>CONCATENATE(b_1,'12ka_config'!D7,a_1)</f>
-        <v>&lt;b&gt;&lt;/b&gt;</v>
+        <v>&lt;b&gt;6.&lt;/b&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="str">
         <f>'12ka_config'!A8</f>
-        <v>Ziky &amp; Kali</v>
+        <v>Michal H. &amp; Anča</v>
       </c>
       <c r="B8" s="1" t="str">
         <f>'12ka_config'!B8</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="str">
         <f>'12ka_config'!C8</f>
-        <v>259:289</v>
+        <v>275:286</v>
       </c>
       <c r="D8" s="2" t="str">
         <f>CONCATENATE(b_1,'12ka_config'!D8,a_1)</f>
-        <v>&lt;b&gt;&lt;/b&gt;</v>
+        <v>&lt;b&gt;7.&lt;/b&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="str">
         <f>'12ka_config'!A9</f>
-        <v>Zelí &amp; Naty V.</v>
+        <v>Žum &amp; Zuzka Č.</v>
       </c>
       <c r="B9" s="1" t="str">
         <f>'12ka_config'!B9</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1" t="str">
         <f>'12ka_config'!C9</f>
-        <v>293:269</v>
+        <v>278:269</v>
       </c>
       <c r="D9" s="2" t="str">
         <f>CONCATENATE(b_1,'12ka_config'!D9,a_1)</f>
-        <v>&lt;b&gt;&lt;/b&gt;</v>
+        <v>&lt;b&gt;8.&lt;/b&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="str">
         <f>'12ka_config'!A10</f>
-        <v>Michal N. &amp; Hanka V.</v>
+        <v>Kudla &amp; Tomy</v>
       </c>
       <c r="B10" s="1" t="str">
         <f>'12ka_config'!B10</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1" t="str">
         <f>'12ka_config'!C10</f>
-        <v>292:252</v>
+        <v>279:286</v>
       </c>
       <c r="D10" s="2" t="str">
         <f>CONCATENATE(b_1,'12ka_config'!D10,a_1)</f>
-        <v>&lt;b&gt;&lt;/b&gt;</v>
+        <v>&lt;b&gt;9.&lt;/b&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="str">
         <f>'12ka_config'!A11</f>
-        <v>Mazy &amp; Martina D.</v>
+        <v>Mára Z. &amp; Juan</v>
       </c>
       <c r="B11" s="1" t="str">
         <f>'12ka_config'!B11</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1" t="str">
         <f>'12ka_config'!C11</f>
-        <v>286:270</v>
+        <v>276:286</v>
       </c>
       <c r="D11" s="2" t="str">
         <f>CONCATENATE(b_1,'12ka_config'!D11,a_1)</f>
-        <v>&lt;b&gt;&lt;/b&gt;</v>
+        <v>&lt;b&gt;10.&lt;/b&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="str">
         <f>'12ka_config'!A12</f>
-        <v>Alex L. &amp; Bára</v>
+        <v>Ziky &amp; Kali &amp; Zuzka Šátek</v>
       </c>
       <c r="B12" s="1" t="str">
         <f>'12ka_config'!B12</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1" t="str">
         <f>'12ka_config'!C12</f>
-        <v>261:306</v>
+        <v>259:289</v>
       </c>
       <c r="D12" s="2" t="str">
         <f>CONCATENATE(b_1,'12ka_config'!D12,a_1)</f>
-        <v>&lt;b&gt;&lt;/b&gt;</v>
+        <v>&lt;b&gt;11.&lt;/b&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="str">
         <f>'12ka_config'!A13</f>
-        <v>Michal H. &amp; Anča</v>
+        <v>Alex L. &amp; Bára</v>
       </c>
       <c r="B13" s="1" t="str">
         <f>'12ka_config'!B13</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1" t="str">
         <f>'12ka_config'!C13</f>
-        <v>275:286</v>
+        <v>261:306</v>
       </c>
       <c r="D13" s="2" t="str">
         <f>CONCATENATE(b_1,'12ka_config'!D13,a_1)</f>
-        <v>&lt;b&gt;&lt;/b&gt;</v>
+        <v>&lt;b&gt;12.&lt;/b&gt;</v>
       </c>
     </row>
   </sheetData>
@@ -778,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScale="134" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -803,63 +839,73 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -869,83 +915,100 @@
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:D13">
+    <sortCondition ref="D2:D13"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
